--- a/data/trans_orig/P21B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Clase-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5845</v>
+        <v>5927</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02385112372499422</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07478808399408961</v>
+        <v>0.07583404689587592</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -812,19 +812,19 @@
         <v>3063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>837</v>
+        <v>857</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8269</v>
+        <v>8790</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0446799566329661</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01221336958805985</v>
+        <v>0.01250480597165292</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1206169875423849</v>
+        <v>0.1282186686412287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>4927</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1777</v>
+        <v>1804</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10413</v>
+        <v>11459</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03358361402925406</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01211471532098922</v>
+        <v>0.01229497378068371</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07097961305351651</v>
+        <v>0.07810770756198852</v>
       </c>
     </row>
     <row r="6">
@@ -862,19 +862,19 @@
         <v>3370</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9221</v>
+        <v>8694</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04311720257144947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01127079813372316</v>
+        <v>0.01105815876683343</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1179770532362969</v>
+        <v>0.1112323249828429</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5331</v>
+        <v>4844</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01377011128942126</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07776907912306301</v>
+        <v>0.07065448643967912</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -904,19 +904,19 @@
         <v>4314</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1449</v>
+        <v>1414</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10743</v>
+        <v>10165</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02940446683524548</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00987966568538483</v>
+        <v>0.009635934249914</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0732258394307435</v>
+        <v>0.06928616651113807</v>
       </c>
     </row>
     <row r="7">
@@ -933,19 +933,19 @@
         <v>22942</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15517</v>
+        <v>14930</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31823</v>
+        <v>31773</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2935250833872319</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1985255940221468</v>
+        <v>0.1910247773757688</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4071554966383213</v>
+        <v>0.4065172520781467</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -954,19 +954,19 @@
         <v>19299</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12802</v>
+        <v>12711</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27319</v>
+        <v>27429</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2815180630383012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1867517230783285</v>
+        <v>0.1854241760036587</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3985086138289288</v>
+        <v>0.4001184603170981</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -975,19 +975,19 @@
         <v>42240</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31942</v>
+        <v>31406</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53432</v>
+        <v>53297</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2879146773867933</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2177221437382552</v>
+        <v>0.2140683841724567</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3642013124722719</v>
+        <v>0.3632758674335573</v>
       </c>
     </row>
     <row r="8">
@@ -1004,19 +1004,19 @@
         <v>49983</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>41050</v>
+        <v>40907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58271</v>
+        <v>58355</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6395065903163244</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5252109542299074</v>
+        <v>0.5233792971512179</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7455418661491894</v>
+        <v>0.74661596994625</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -1025,19 +1025,19 @@
         <v>45247</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37476</v>
+        <v>37334</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52450</v>
+        <v>52822</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6600318690393114</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5466829229769306</v>
+        <v>0.5446151735998106</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7651190018708407</v>
+        <v>0.7705323811754634</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>90</v>
@@ -1046,19 +1046,19 @@
         <v>95230</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83626</v>
+        <v>84232</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>107561</v>
+        <v>106223</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6490972417487072</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5700074469989523</v>
+        <v>0.5741377368564867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7331492712039198</v>
+        <v>0.7240282804475713</v>
       </c>
     </row>
     <row r="9">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6341</v>
+        <v>6209</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02739828679401308</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09762598416440309</v>
+        <v>0.0955897948229515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8349</v>
+        <v>8369</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02922323182378668</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09151961161390648</v>
+        <v>0.09174053981639191</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1239,19 +1239,19 @@
         <v>4445</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1176</v>
+        <v>1165</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11582</v>
+        <v>10535</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02846423534099066</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007531024925573928</v>
+        <v>0.007457125540320941</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07416240358556705</v>
+        <v>0.06745562797500874</v>
       </c>
     </row>
     <row r="12">
@@ -1268,19 +1268,19 @@
         <v>5440</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12793</v>
+        <v>13587</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08375545417375647</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01677796884645088</v>
+        <v>0.01673650007085819</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.196956144175861</v>
+        <v>0.2091783579358203</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1289,19 +1289,19 @@
         <v>3693</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10016</v>
+        <v>10656</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04048128944984538</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01066736926118456</v>
+        <v>0.01060562280136339</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1097934719405127</v>
+        <v>0.1168086013499618</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1310,19 +1310,19 @@
         <v>9133</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3714</v>
+        <v>3789</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19323</v>
+        <v>18080</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05847905830618123</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02378372521086236</v>
+        <v>0.02425976079464867</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1237280976036759</v>
+        <v>0.1157676524204018</v>
       </c>
     </row>
     <row r="13">
@@ -1339,19 +1339,19 @@
         <v>9302</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4758</v>
+        <v>4631</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16689</v>
+        <v>16548</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1432139200553149</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07325309326161675</v>
+        <v>0.0712980160732284</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2569431755662048</v>
+        <v>0.25477085177985</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1360,19 +1360,19 @@
         <v>28910</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20193</v>
+        <v>20346</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37698</v>
+        <v>38224</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3169220988153038</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2213615322016365</v>
+        <v>0.2230387605551453</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4132550858799736</v>
+        <v>0.4190256930838689</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -1381,19 +1381,19 @@
         <v>38213</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27241</v>
+        <v>27288</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50057</v>
+        <v>48839</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2446766916601686</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1744255090578505</v>
+        <v>0.1747275101891534</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3205177550491546</v>
+        <v>0.3127148671927287</v>
       </c>
     </row>
     <row r="14">
@@ -1410,19 +1410,19 @@
         <v>48432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38618</v>
+        <v>39676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54680</v>
+        <v>54689</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7456323389769155</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5945416573437778</v>
+        <v>0.6108313343782215</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8418246605451073</v>
+        <v>0.8419653445579305</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>56</v>
@@ -1431,19 +1431,19 @@
         <v>55953</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>46745</v>
+        <v>46106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65038</v>
+        <v>65058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6133733799110641</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5124362886369935</v>
+        <v>0.5054277775724829</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7129589632914601</v>
+        <v>0.713187764489448</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>103</v>
@@ -1452,19 +1452,19 @@
         <v>104385</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90984</v>
+        <v>93166</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117264</v>
+        <v>117006</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6683800146926595</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5825706472865035</v>
+        <v>0.5965447645745774</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7508421278021453</v>
+        <v>0.7491941016118631</v>
       </c>
     </row>
     <row r="15">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5971</v>
+        <v>4866</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02526352851563229</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1278130550041569</v>
+        <v>0.1041625805714934</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5996</v>
+        <v>6648</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008246619138865499</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04189216596064778</v>
+        <v>0.04645089044273205</v>
       </c>
     </row>
     <row r="17">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5603</v>
+        <v>5158</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01054008079832928</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05811933358051885</v>
+        <v>0.05350553836130915</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6586</v>
+        <v>6246</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04046454638535887</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1409668424891459</v>
+        <v>0.1336983710568087</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1661,19 +1661,19 @@
         <v>2907</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7749</v>
+        <v>7197</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02030814112599186</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006257379820419431</v>
+        <v>0.006241981228102256</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05413892692584105</v>
+        <v>0.05028734457177688</v>
       </c>
     </row>
     <row r="18">
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3556</v>
+        <v>4258</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.008682133068872446</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03688295816999267</v>
+        <v>0.04416572976049395</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4574</v>
+        <v>3428</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.005848077458325496</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03195717949697298</v>
+        <v>0.02395347382690792</v>
       </c>
     </row>
     <row r="19">
@@ -1753,19 +1753,19 @@
         <v>23810</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16322</v>
+        <v>16807</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32201</v>
+        <v>34354</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2469793503454</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1693049009005952</v>
+        <v>0.1743403278322923</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3340165109144372</v>
+        <v>0.356356884385915</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1774,19 +1774,19 @@
         <v>9037</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4763</v>
+        <v>4155</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15909</v>
+        <v>15645</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1934376902494007</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1019442422551755</v>
+        <v>0.08892669110488385</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3405322431974322</v>
+        <v>0.3348658173467826</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -1795,19 +1795,19 @@
         <v>32847</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23557</v>
+        <v>23839</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43812</v>
+        <v>44773</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2295020736221153</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1645944914900726</v>
+        <v>0.1665665086440313</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3061125469959244</v>
+        <v>0.3128269677882395</v>
       </c>
     </row>
     <row r="20">
@@ -1824,19 +1824,19 @@
         <v>70741</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61731</v>
+        <v>60028</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78090</v>
+        <v>77913</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7337984357873982</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6403364643460865</v>
+        <v>0.6226685578121011</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.810030768387443</v>
+        <v>0.8081970659418553</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -1845,19 +1845,19 @@
         <v>34611</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27929</v>
+        <v>28386</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40512</v>
+        <v>40492</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7408342348496082</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.597799730918385</v>
+        <v>0.6075997488782069</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8671454009200577</v>
+        <v>0.86670337218496</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>105</v>
@@ -1866,19 +1866,19 @@
         <v>105352</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>93521</v>
+        <v>94075</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>114682</v>
+        <v>115025</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7360950886547019</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6534313176148245</v>
+        <v>0.657301892499898</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8012827312140056</v>
+        <v>0.8036820666014801</v>
       </c>
     </row>
     <row r="21">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4789</v>
+        <v>4800</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004218888354226189</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02128334528388816</v>
+        <v>0.02133132226788736</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6255</v>
+        <v>5806</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009067608000211481</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03318928538413239</v>
+        <v>0.03080730386907568</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2012,19 +2012,19 @@
         <v>2658</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7115</v>
+        <v>7938</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006428770318768977</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00177023941470205</v>
+        <v>0.001800881160145155</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01720695672604629</v>
+        <v>0.01919801019969376</v>
       </c>
     </row>
     <row r="23">
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7067</v>
+        <v>7080</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008691389732802188</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03140285334616633</v>
+        <v>0.03146257321464308</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5149</v>
+        <v>5812</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005400177210633734</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02732480975646504</v>
+        <v>0.03083974723158095</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2083,19 +2083,19 @@
         <v>2973</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>386</v>
+        <v>887</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8018</v>
+        <v>8585</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007191366690587404</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00093295185254363</v>
+        <v>0.002144003604847199</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0193905255728551</v>
+        <v>0.02076195971093915</v>
       </c>
     </row>
     <row r="24">
@@ -2112,19 +2112,19 @@
         <v>2943</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7799</v>
+        <v>8616</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01307657520442473</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003882437452538779</v>
+        <v>0.003923221602904263</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03465715179961078</v>
+        <v>0.03828767096566999</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2133,19 +2133,19 @@
         <v>2829</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8473</v>
+        <v>7696</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01501294204287792</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004752829588497983</v>
+        <v>0.004741765061279507</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04496146704866527</v>
+        <v>0.04084090350597762</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2154,19 +2154,19 @@
         <v>5772</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2026</v>
+        <v>2064</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11706</v>
+        <v>12680</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01395910553520587</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004899364741335706</v>
+        <v>0.004991529037164721</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02831212784099306</v>
+        <v>0.03066778239037968</v>
       </c>
     </row>
     <row r="25">
@@ -2183,19 +2183,19 @@
         <v>53720</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42017</v>
+        <v>41233</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68684</v>
+        <v>68175</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2387227251755791</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1867165625520931</v>
+        <v>0.1832339131100982</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3052236154616665</v>
+        <v>0.3029603269641711</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -2204,19 +2204,19 @@
         <v>55510</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44171</v>
+        <v>43190</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>69817</v>
+        <v>69013</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2945593331774777</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2343894172931827</v>
+        <v>0.2291842279257555</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3704798603036856</v>
+        <v>0.3662124554576221</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>108</v>
@@ -2225,19 +2225,19 @@
         <v>109229</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>93261</v>
+        <v>91982</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>128199</v>
+        <v>128417</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2641711573378323</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2255527004025947</v>
+        <v>0.2224586478655949</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3100507601546886</v>
+        <v>0.3105768815777792</v>
       </c>
     </row>
     <row r="26">
@@ -2254,19 +2254,19 @@
         <v>165462</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>151341</v>
+        <v>151327</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>178270</v>
+        <v>178599</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7352904215329679</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6725383051837168</v>
+        <v>0.6724768447311474</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7922086732890764</v>
+        <v>0.7936689371807047</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>125</v>
@@ -2275,19 +2275,19 @@
         <v>127385</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>113393</v>
+        <v>113597</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>139726</v>
+        <v>139144</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6759599395687992</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6017142744958094</v>
+        <v>0.6027973609273763</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.741446831084829</v>
+        <v>0.7383611131228084</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>287</v>
@@ -2296,19 +2296,19 @@
         <v>292846</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>273433</v>
+        <v>274353</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>309505</v>
+        <v>310267</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7082496001176054</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6612988564378876</v>
+        <v>0.6635223551504754</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7485378594962282</v>
+        <v>0.7503827032801387</v>
       </c>
     </row>
     <row r="27">
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6255</v>
+        <v>5664</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03539211936368042</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1274569987421537</v>
+        <v>0.1154149590281709</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6035</v>
+        <v>5305</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009311307176508448</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03235424760954885</v>
+        <v>0.02844150085617644</v>
       </c>
     </row>
     <row r="29">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9761</v>
+        <v>9358</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05464105617859923</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1989001504482614</v>
+        <v>0.1906940098037676</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5503</v>
+        <v>5532</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007129706053867205</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04003415761915217</v>
+        <v>0.04024624257104072</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -2505,19 +2505,19 @@
         <v>3662</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>912</v>
+        <v>933</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11091</v>
+        <v>11113</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01962945976559346</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004890197720832138</v>
+        <v>0.004999766878291257</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05945674410964519</v>
+        <v>0.05957664452652479</v>
       </c>
     </row>
     <row r="30">
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4218</v>
+        <v>3767</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.005345895960533269</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03068318733026886</v>
+        <v>0.02740578739010542</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3745</v>
+        <v>3555</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.003939445024078114</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02007671734509648</v>
+        <v>0.01905637419201999</v>
       </c>
     </row>
     <row r="31">
@@ -2597,19 +2597,19 @@
         <v>10783</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5470</v>
+        <v>5736</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16804</v>
+        <v>16992</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2197170493367392</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1114690589715065</v>
+        <v>0.1168738528985878</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3424069609036953</v>
+        <v>0.3462434635727996</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>22</v>
@@ -2618,19 +2618,19 @@
         <v>24970</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17284</v>
+        <v>16520</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>36244</v>
+        <v>36157</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1816566781832196</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1257385185140857</v>
+        <v>0.1201814656802079</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2636725925325157</v>
+        <v>0.263038692391234</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>33</v>
@@ -2639,19 +2639,19 @@
         <v>35753</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>25371</v>
+        <v>25588</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>48478</v>
+        <v>47280</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1916699753079467</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1360141957729187</v>
+        <v>0.1371757690145445</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.259887522086229</v>
+        <v>0.2534634859346079</v>
       </c>
     </row>
     <row r="32">
@@ -2668,19 +2668,19 @@
         <v>33874</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26972</v>
+        <v>26782</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>40268</v>
+        <v>40172</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6902497751209812</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5496013847442431</v>
+        <v>0.5457394765177261</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8205486242923408</v>
+        <v>0.8185763816505727</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>106</v>
@@ -2689,19 +2689,19 @@
         <v>110774</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>98903</v>
+        <v>100028</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>118643</v>
+        <v>119696</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8058677198023799</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7195059034085257</v>
+        <v>0.7276941938272564</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8631172159525494</v>
+        <v>0.8707741608384943</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>139</v>
@@ -2710,19 +2710,19 @@
         <v>144648</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>130775</v>
+        <v>131913</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>155407</v>
+        <v>155762</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7754498127258732</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7010770221954046</v>
+        <v>0.7071785743621939</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.833131368118999</v>
+        <v>0.8350352462485555</v>
       </c>
     </row>
     <row r="33">
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4729</v>
+        <v>5303</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0199623201307141</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1055074150128909</v>
+        <v>0.1183077978795866</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2882,19 +2882,19 @@
         <v>4016</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>980</v>
+        <v>1114</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9489</v>
+        <v>9338</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01377220066580284</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003362377104788896</v>
+        <v>0.003821222359467376</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03254017434365047</v>
+        <v>0.03202248200312438</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -2903,19 +2903,19 @@
         <v>4911</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1776</v>
+        <v>1864</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10737</v>
+        <v>11373</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01459694119377946</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.005279682280061504</v>
+        <v>0.005540706871047587</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03191494465163272</v>
+        <v>0.03380424839316564</v>
       </c>
     </row>
     <row r="36">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6946</v>
+        <v>7197</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.006841276307593382</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02382067042762886</v>
+        <v>0.02468125930121863</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6305</v>
+        <v>7000</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005929778901777262</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01873955563291765</v>
+        <v>0.02080738408925573</v>
       </c>
     </row>
     <row r="37">
@@ -2995,19 +2995,19 @@
         <v>16889</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10386</v>
+        <v>11243</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>23413</v>
+        <v>24053</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3767890169693807</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2317111584642361</v>
+        <v>0.2508267600869331</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5223229937573642</v>
+        <v>0.5366192281152276</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>92</v>
@@ -3016,19 +3016,19 @@
         <v>92232</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>77651</v>
+        <v>78723</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>108888</v>
+        <v>108464</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3162870457374614</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2662853342686071</v>
+        <v>0.2699636317167086</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3734069611401509</v>
+        <v>0.3719512630447819</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>109</v>
@@ -3037,19 +3037,19 @@
         <v>109121</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>92665</v>
+        <v>93289</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>126479</v>
+        <v>127055</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3243480254940377</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2754358576032169</v>
+        <v>0.2772888595063469</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3759435113147823</v>
+        <v>0.3776553732561321</v>
       </c>
     </row>
     <row r="38">
@@ -3066,19 +3066,19 @@
         <v>27040</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>20420</v>
+        <v>20004</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>33504</v>
+        <v>33017</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6032486628999052</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4555662651548238</v>
+        <v>0.4462787999359454</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.747458497796102</v>
+        <v>0.7366020941146965</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>189</v>
@@ -3087,19 +3087,19 @@
         <v>193364</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>176282</v>
+        <v>177352</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>207390</v>
+        <v>207685</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6630994772891424</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6045206703782708</v>
+        <v>0.6081873651921139</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7111976459764711</v>
+        <v>0.7122078905209361</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>215</v>
@@ -3108,19 +3108,19 @@
         <v>220404</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>203117</v>
+        <v>202232</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>237545</v>
+        <v>236068</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6551252544104056</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6037395397772175</v>
+        <v>0.6011096593964088</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7060727289020722</v>
+        <v>0.7016833006109168</v>
       </c>
     </row>
     <row r="39">
@@ -3212,19 +3212,19 @@
         <v>2686</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7190</v>
+        <v>7290</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004810227044308192</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001468336881503951</v>
+        <v>0.001489892474010832</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01287575282132472</v>
+        <v>0.01305410193323942</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -3233,19 +3233,19 @@
         <v>2889</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8146</v>
+        <v>7463</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003506114334318771</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0009023749154532572</v>
+        <v>0.0008915016460693502</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.009885805107661407</v>
+        <v>0.009056997756910564</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6</v>
@@ -3254,19 +3254,19 @@
         <v>5575</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2121</v>
+        <v>2368</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>11732</v>
+        <v>10850</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.004032913779798131</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001533879205615712</v>
+        <v>0.001713106147197085</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008486130181520732</v>
+        <v>0.007848212159243128</v>
       </c>
     </row>
     <row r="41">
@@ -3283,19 +3283,19 @@
         <v>10192</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4781</v>
+        <v>5411</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>18570</v>
+        <v>19016</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01825074006506551</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008561901562776192</v>
+        <v>0.009690201618112706</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03325283153042422</v>
+        <v>0.03405096583262971</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>13</v>
@@ -3304,19 +3304,19 @@
         <v>13633</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>7282</v>
+        <v>7508</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>23167</v>
+        <v>22737</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01654466953488669</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.008837800102296412</v>
+        <v>0.009111796532797875</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02811473567240877</v>
+        <v>0.02759268178597524</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>23</v>
@@ -3325,19 +3325,19 @@
         <v>23825</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>14666</v>
+        <v>15613</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>34790</v>
+        <v>35641</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01723384080234115</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0106088805562506</v>
+        <v>0.01129367088285895</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02516548821322665</v>
+        <v>0.02578083302090571</v>
       </c>
     </row>
     <row r="42">
@@ -3354,19 +3354,19 @@
         <v>12590</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7123</v>
+        <v>6550</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>22466</v>
+        <v>21698</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02254440817745234</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01275461620961515</v>
+        <v>0.01172941426309765</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04022904566728256</v>
+        <v>0.03885412390173782</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>10</v>
@@ -3375,19 +3375,19 @@
         <v>10196</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>4981</v>
+        <v>4923</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>17691</v>
+        <v>17955</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01237335610392392</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.006045249235230398</v>
+        <v>0.005974434996229924</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02146908670566572</v>
+        <v>0.02178995190228773</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>21</v>
@@ -3396,19 +3396,19 @@
         <v>22786</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>14709</v>
+        <v>13978</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>34772</v>
+        <v>34470</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01648197689354872</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01063941879571723</v>
+        <v>0.0101108988634877</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02515250322841318</v>
+        <v>0.02493364005403606</v>
       </c>
     </row>
     <row r="43">
@@ -3425,19 +3425,19 @@
         <v>137445</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>118751</v>
+        <v>117309</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>161035</v>
+        <v>158752</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2461211928504486</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2126452764382909</v>
+        <v>0.2100639743971352</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2883633313229093</v>
+        <v>0.2842754600606421</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>226</v>
@@ -3446,19 +3446,19 @@
         <v>229958</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>202211</v>
+        <v>205249</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>255781</v>
+        <v>257736</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2790718062582075</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2453995631148755</v>
+        <v>0.2490861319279664</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3104106898714341</v>
+        <v>0.3127824792580646</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>361</v>
@@ -3467,19 +3467,19 @@
         <v>367403</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>335069</v>
+        <v>334383</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>403305</v>
+        <v>403673</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2657613272340801</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2423728940278022</v>
+        <v>0.2418766856084048</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2917311670086036</v>
+        <v>0.2919973769631125</v>
       </c>
     </row>
     <row r="44">
@@ -3496,19 +3496,19 @@
         <v>395532</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>369564</v>
+        <v>373356</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>414502</v>
+        <v>418610</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7082734318627253</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6617716334189434</v>
+        <v>0.668561970340009</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7422421148617749</v>
+        <v>0.7495987954508234</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>551</v>
@@ -3517,19 +3517,19 @@
         <v>567334</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>539552</v>
+        <v>541267</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>595384</v>
+        <v>595425</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6885040537686632</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6547892511287289</v>
+        <v>0.6568698685621358</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.722545431482288</v>
+        <v>0.7225947238184078</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>939</v>
@@ -3538,19 +3538,19 @@
         <v>962865</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>925878</v>
+        <v>924955</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>995718</v>
+        <v>995427</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6964899412902319</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6697348757243996</v>
+        <v>0.6690673679091247</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7202542320578068</v>
+        <v>0.7200435670893487</v>
       </c>
     </row>
     <row r="45">
@@ -3944,19 +3944,19 @@
         <v>7949</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3809</v>
+        <v>3249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15892</v>
+        <v>15551</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09938080185036904</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04762882634347909</v>
+        <v>0.04062453456138585</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1986906164023664</v>
+        <v>0.1944235697058687</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -3965,19 +3965,19 @@
         <v>7949</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3423</v>
+        <v>3778</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16475</v>
+        <v>15388</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05975497711792557</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02573067704548266</v>
+        <v>0.02840156511496488</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1238473182050456</v>
+        <v>0.1156788917264294</v>
       </c>
     </row>
     <row r="6">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6630</v>
+        <v>6209</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03712190372745412</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1249969252581022</v>
+        <v>0.1170542406032201</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -4015,19 +4015,19 @@
         <v>5209</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1973</v>
+        <v>1922</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11549</v>
+        <v>10658</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06512951855693759</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02466652085594366</v>
+        <v>0.02402460515241606</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1443887612037244</v>
+        <v>0.1332545766761332</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -4036,19 +4036,19 @@
         <v>7178</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3119</v>
+        <v>3200</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13837</v>
+        <v>14353</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05396212187927861</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02345063220455615</v>
+        <v>0.02405473917135155</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1040167130504959</v>
+        <v>0.1078960509077198</v>
       </c>
     </row>
     <row r="7">
@@ -4065,19 +4065,19 @@
         <v>15496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9478</v>
+        <v>9569</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23652</v>
+        <v>23240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2921525351638342</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1786945171971629</v>
+        <v>0.180418098306539</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.445921394903688</v>
+        <v>0.4381658969982174</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4086,19 +4086,19 @@
         <v>14892</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8205</v>
+        <v>8399</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23037</v>
+        <v>24089</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1861907981583807</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1025870458689166</v>
+        <v>0.1050135867955053</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.288027332510477</v>
+        <v>0.3011813085437482</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -4107,19 +4107,19 @@
         <v>30388</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20780</v>
+        <v>20231</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41609</v>
+        <v>41213</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2284406204655628</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1562108614364584</v>
+        <v>0.1520851968718641</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3127956535105339</v>
+        <v>0.3098162215984296</v>
       </c>
     </row>
     <row r="8">
@@ -4136,19 +4136,19 @@
         <v>35575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27594</v>
+        <v>28231</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41829</v>
+        <v>42063</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6707255611087117</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5202557716117612</v>
+        <v>0.5322668787388748</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7886321992593711</v>
+        <v>0.7930488156089702</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>44</v>
@@ -4157,19 +4157,19 @@
         <v>51933</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42432</v>
+        <v>41570</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60109</v>
+        <v>59814</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6492988814343127</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5305175012342507</v>
+        <v>0.5197319926977054</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7515181485988321</v>
+        <v>0.7478366097023299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>78</v>
@@ -4178,19 +4178,19 @@
         <v>87508</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76130</v>
+        <v>75300</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>98686</v>
+        <v>98409</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.657842280537233</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5723042024534348</v>
+        <v>0.5660706932791918</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7418724785506222</v>
+        <v>0.7397896272437776</v>
       </c>
     </row>
     <row r="9">
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5959</v>
+        <v>5935</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02683744890881939</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08369113822652152</v>
+        <v>0.08335248413240415</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5424</v>
+        <v>5053</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01030056006542436</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06259437749959412</v>
+        <v>0.05831377288491845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -4371,19 +4371,19 @@
         <v>2804</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8430</v>
+        <v>7407</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01775996566315782</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005517895295309436</v>
+        <v>0.005391700320199754</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05339822296216273</v>
+        <v>0.04691942489459001</v>
       </c>
     </row>
     <row r="12">
@@ -4400,19 +4400,19 @@
         <v>6115</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2204</v>
+        <v>2115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14099</v>
+        <v>13932</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08588058581970918</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03095358306692622</v>
+        <v>0.02970743060540676</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1979983884889282</v>
+        <v>0.1956484668484358</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6807</v>
+        <v>6376</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02245182870825304</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07855776280072908</v>
+        <v>0.07357947337460245</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -4442,19 +4442,19 @@
         <v>8061</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3788</v>
+        <v>3723</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16883</v>
+        <v>16395</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05106306449360139</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02399574389019339</v>
+        <v>0.02358413879517014</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1069454592830012</v>
+        <v>0.1038567939255401</v>
       </c>
     </row>
     <row r="13">
@@ -4471,19 +4471,19 @@
         <v>21559</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14494</v>
+        <v>14264</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30382</v>
+        <v>30648</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3027639975054356</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2035393708423693</v>
+        <v>0.200316419834672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4266624789484921</v>
+        <v>0.4303963721091438</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -4492,19 +4492,19 @@
         <v>21846</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14115</v>
+        <v>14191</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30306</v>
+        <v>31267</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2521016540473097</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1628902913473068</v>
+        <v>0.1637675308426498</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3497393738537005</v>
+        <v>0.3608226775667897</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -4513,19 +4513,19 @@
         <v>43405</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32583</v>
+        <v>32247</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56382</v>
+        <v>55134</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2749542578208895</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2064027433933118</v>
+        <v>0.2042755627116026</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3571623269710373</v>
+        <v>0.3492542620146515</v>
       </c>
     </row>
     <row r="14">
@@ -4542,19 +4542,19 @@
         <v>41622</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31785</v>
+        <v>32839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49510</v>
+        <v>49373</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5845179677660358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4463703068283568</v>
+        <v>0.4611724173322272</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6952808606807683</v>
+        <v>0.6933564028459696</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -4563,7 +4563,7 @@
         <v>61970</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52933</v>
+        <v>52245</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>70005</v>
@@ -4572,10 +4572,10 @@
         <v>0.7151459571790129</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.610858149175891</v>
+        <v>0.6029140479376549</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8078698074750914</v>
+        <v>0.8078632172990757</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>93</v>
@@ -4584,19 +4584,19 @@
         <v>103593</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90422</v>
+        <v>90885</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>114528</v>
+        <v>115152</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6562227120223513</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5727941491116848</v>
+        <v>0.5757250153048301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.72549476241843</v>
+        <v>0.7294484270339525</v>
       </c>
     </row>
     <row r="15">
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5352</v>
+        <v>4498</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006954117442057408</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0342837843118495</v>
+        <v>0.02881842552678587</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5951</v>
+        <v>5581</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005181608268790548</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02840754144964341</v>
+        <v>0.02664006099397967</v>
       </c>
     </row>
     <row r="17">
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5020</v>
+        <v>4852</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00600284405928132</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03216069440067805</v>
+        <v>0.03108147326811422</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4734</v>
+        <v>5246</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01918366378373334</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0886592196210422</v>
+        <v>0.09824272611304119</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7728</v>
+        <v>7025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009362454256755335</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03688785800800467</v>
+        <v>0.0335359972951646</v>
       </c>
     </row>
     <row r="18">
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5376</v>
+        <v>5281</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01780190963136907</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1006780167468759</v>
+        <v>0.09890733238428286</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5336</v>
+        <v>4905</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.004537462645142492</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0254720002582085</v>
+        <v>0.02341437999686233</v>
       </c>
     </row>
     <row r="19">
@@ -4885,19 +4885,19 @@
         <v>48708</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37535</v>
+        <v>37117</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62203</v>
+        <v>60495</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3120430783820261</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2404648448227386</v>
+        <v>0.2377835150139796</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3984956117241757</v>
+        <v>0.3875550508641157</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -4906,19 +4906,19 @@
         <v>22987</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15847</v>
+        <v>16045</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30187</v>
+        <v>30584</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.430497219983673</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.296788473703624</v>
+        <v>0.3004860405509225</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5653368333416269</v>
+        <v>0.5727739494115642</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -4927,19 +4927,19 @@
         <v>71695</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57032</v>
+        <v>56140</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86223</v>
+        <v>86288</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3422354146992932</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2722431003851672</v>
+        <v>0.2679814087511587</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4115833976643094</v>
+        <v>0.4118914985953622</v>
       </c>
     </row>
     <row r="20">
@@ -4956,19 +4956,19 @@
         <v>105364</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91488</v>
+        <v>93802</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116551</v>
+        <v>116963</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6749999601166352</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5861070369356415</v>
+        <v>0.6009264164738843</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.746669149073572</v>
+        <v>0.7493064752584744</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -4977,19 +4977,19 @@
         <v>28434</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21075</v>
+        <v>20265</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35857</v>
+        <v>35482</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5325172066012246</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3946848447510262</v>
+        <v>0.3795298100450832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6715226921078986</v>
+        <v>0.6645117337559662</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>126</v>
@@ -4998,19 +4998,19 @@
         <v>133798</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>118647</v>
+        <v>118936</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>149091</v>
+        <v>148272</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6386830601300184</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5663597972762239</v>
+        <v>0.5677366863663361</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7116829385114337</v>
+        <v>0.7077716226443975</v>
       </c>
     </row>
     <row r="21">
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4547</v>
+        <v>4660</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003597628312969171</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01785492280145761</v>
+        <v>0.01830138427673515</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4333</v>
+        <v>4627</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001922789598382327</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009094184007787602</v>
+        <v>0.009710393241503789</v>
       </c>
     </row>
     <row r="23">
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10416</v>
+        <v>11081</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01297231220255425</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04696076499363955</v>
+        <v>0.04995734565615372</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10767</v>
+        <v>11658</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006039126003156787</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02259890776114726</v>
+        <v>0.02446832226367018</v>
       </c>
     </row>
     <row r="24">
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7835</v>
+        <v>7650</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.008811865251083718</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03076595382330311</v>
+        <v>0.03004220762144327</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9148</v>
+        <v>11044</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01240940630905633</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04124121496428144</v>
+        <v>0.04979017572150824</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -5270,19 +5270,19 @@
         <v>4996</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13447</v>
+        <v>12871</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01048666334500785</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002672620717621896</v>
+        <v>0.002665056540810421</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02822297839611523</v>
+        <v>0.02701340538049836</v>
       </c>
     </row>
     <row r="25">
@@ -5299,19 +5299,19 @@
         <v>86037</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70781</v>
+        <v>70992</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>101981</v>
+        <v>103533</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3378652872649118</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2779539441487854</v>
+        <v>0.2787852163243158</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4004753108569055</v>
+        <v>0.4065723668692858</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -5320,19 +5320,19 @@
         <v>69625</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55544</v>
+        <v>56489</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>83661</v>
+        <v>84718</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.313892133207723</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2504128416814034</v>
+        <v>0.2546725347542791</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.377172769980147</v>
+        <v>0.3819382502009361</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>141</v>
@@ -5341,19 +5341,19 @@
         <v>155662</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>133603</v>
+        <v>135692</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>177011</v>
+        <v>177499</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3267048329230909</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.280407540882977</v>
+        <v>0.2847914638280235</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3715131520541869</v>
+        <v>0.3725365892669255</v>
       </c>
     </row>
     <row r="26">
@@ -5370,19 +5370,19 @@
         <v>165452</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>149296</v>
+        <v>148065</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>181238</v>
+        <v>180576</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6497252191710353</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5862812239492633</v>
+        <v>0.5814473090184162</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7117175246991666</v>
+        <v>0.7091174565761899</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>137</v>
@@ -5391,19 +5391,19 @@
         <v>146556</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>132304</v>
+        <v>131710</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>162740</v>
+        <v>160154</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6607261482806664</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5964736857013303</v>
+        <v>0.593791718932507</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7336869883768953</v>
+        <v>0.7220279913674084</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>294</v>
@@ -5412,19 +5412,19 @@
         <v>312008</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>290887</v>
+        <v>290326</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>334072</v>
+        <v>333411</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6548465881303621</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6105176851114218</v>
+        <v>0.6093400671110886</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7011537322502897</v>
+        <v>0.6997674217349353</v>
       </c>
     </row>
     <row r="27">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4493</v>
+        <v>5617</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.009027258045012834</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0412335321708009</v>
+        <v>0.0515512891595574</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -5584,19 +5584,19 @@
         <v>3025</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8976</v>
+        <v>8162</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01305009030875501</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.004236515786962838</v>
+        <v>0.004208464817337526</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03872720417405555</v>
+        <v>0.03521433674615315</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -5605,19 +5605,19 @@
         <v>4008</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1000</v>
+        <v>1022</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10015</v>
+        <v>10379</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01176366231061266</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002934318869534528</v>
+        <v>0.002999272278675474</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02939268813837041</v>
+        <v>0.0304595399503306</v>
       </c>
     </row>
     <row r="30">
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5106</v>
+        <v>4131</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.009240327457112351</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04685759578299753</v>
+        <v>0.03791279097735311</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6899</v>
+        <v>5055</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002954887296686618</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02024858218063587</v>
+        <v>0.0148349336156366</v>
       </c>
     </row>
     <row r="31">
@@ -5697,19 +5697,19 @@
         <v>47764</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>38535</v>
+        <v>38457</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>58927</v>
+        <v>58169</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4383622853115319</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3536627361852501</v>
+        <v>0.3529462840624915</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5408126480273771</v>
+        <v>0.5338537140608001</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>63</v>
@@ -5718,19 +5718,19 @@
         <v>68815</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>55029</v>
+        <v>55673</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>83978</v>
+        <v>85108</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2969058320236506</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2374258490707681</v>
+        <v>0.2402063157834569</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3623298135499192</v>
+        <v>0.367203837185694</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>109</v>
@@ -5739,19 +5739,19 @@
         <v>116579</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>99120</v>
+        <v>96857</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>135008</v>
+        <v>135451</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3421410121398029</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.290901889372826</v>
+        <v>0.2842607167564306</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3962281639261818</v>
+        <v>0.3975257856563588</v>
       </c>
     </row>
     <row r="32">
@@ -5768,19 +5768,19 @@
         <v>59206</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>48418</v>
+        <v>49009</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>68720</v>
+        <v>68841</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5433701291863429</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4443625665818758</v>
+        <v>0.4497916416617346</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6306918205936993</v>
+        <v>0.6318023277510757</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>149</v>
@@ -5789,19 +5789,19 @@
         <v>159934</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>143818</v>
+        <v>145030</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>174257</v>
+        <v>174205</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6900440776675945</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6205132655414899</v>
+        <v>0.6257403536347766</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7518454517877439</v>
+        <v>0.7516170244887382</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>207</v>
@@ -5810,19 +5810,19 @@
         <v>219140</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>201104</v>
+        <v>200347</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>238263</v>
+        <v>237925</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6431404382528979</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5902092771583944</v>
+        <v>0.5879878254227441</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6992643218938775</v>
+        <v>0.6982706135862825</v>
       </c>
     </row>
     <row r="33">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4028</v>
+        <v>4831</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01642658059223513</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06861583545890344</v>
+        <v>0.08228501367724696</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -6029,19 +6029,19 @@
         <v>3980</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9944</v>
+        <v>9290</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01319701523315945</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003242150888903139</v>
+        <v>0.003229428469252109</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03297496466472165</v>
+        <v>0.03080568362710108</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -6050,19 +6050,19 @@
         <v>4944</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>11928</v>
+        <v>10889</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01372329631653163</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005376329090691133</v>
+        <v>0.00536732040179303</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03310670027839122</v>
+        <v>0.03022459248867457</v>
       </c>
     </row>
     <row r="37">
@@ -6079,19 +6079,19 @@
         <v>26042</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19240</v>
+        <v>18324</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>33843</v>
+        <v>33860</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4435643456464638</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3277091931161653</v>
+        <v>0.3121091170574105</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5764419793118393</v>
+        <v>0.5767370645397569</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>99</v>
@@ -6100,19 +6100,19 @@
         <v>104734</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>88241</v>
+        <v>88511</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>122112</v>
+        <v>121832</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3472968242562085</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2926062163626661</v>
+        <v>0.2935010020093043</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4049203438121042</v>
+        <v>0.4039912237582101</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>126</v>
@@ -6121,19 +6121,19 @@
         <v>130776</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>112703</v>
+        <v>114217</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>147838</v>
+        <v>149512</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3629843146203356</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3128192493559772</v>
+        <v>0.3170230541725069</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4103412305685659</v>
+        <v>0.4149876885278377</v>
       </c>
     </row>
     <row r="38">
@@ -6150,19 +6150,19 @@
         <v>31704</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>23961</v>
+        <v>23645</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>38536</v>
+        <v>39184</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.540009073761301</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4081278515187206</v>
+        <v>0.4027403881613577</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6563831620886607</v>
+        <v>0.6674121938830668</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>181</v>
@@ -6171,19 +6171,19 @@
         <v>192856</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>175296</v>
+        <v>174704</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>208915</v>
+        <v>208934</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.639506160510632</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5812794335894198</v>
+        <v>0.5793135839467876</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6927570587909153</v>
+        <v>0.692819329203143</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>211</v>
@@ -6192,19 +6192,19 @@
         <v>224560</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>206900</v>
+        <v>207043</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>243500</v>
+        <v>242270</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6232923890631327</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5742749239226739</v>
+        <v>0.5746718602954254</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6758633085452398</v>
+        <v>0.6724489467856021</v>
       </c>
     </row>
     <row r="39">
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6954</v>
+        <v>5721</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002848642377649012</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.009896218645647294</v>
+        <v>0.008141499750001035</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6725</v>
+        <v>7133</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001192974853206623</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004008074224110566</v>
+        <v>0.00425124389447761</v>
       </c>
     </row>
     <row r="41">
@@ -6359,19 +6359,19 @@
         <v>3832</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>983</v>
+        <v>1005</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8783</v>
+        <v>8808</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.005453068758401427</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001399065352243671</v>
+        <v>0.001429794240781059</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01249950391796925</v>
+        <v>0.01253454724275287</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>14</v>
@@ -6380,19 +6380,19 @@
         <v>15768</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>8388</v>
+        <v>8917</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>26218</v>
+        <v>26687</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01616896865912317</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.008601699202798106</v>
+        <v>0.009143630773975774</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02688542611731799</v>
+        <v>0.02736569753175368</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>18</v>
@@ -6401,19 +6401,19 @@
         <v>19599</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>11858</v>
+        <v>11542</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>30959</v>
+        <v>32454</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01168128736527439</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.007067667736600041</v>
+        <v>0.006879297321510815</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01845166718712213</v>
+        <v>0.01934265482133848</v>
       </c>
     </row>
     <row r="42">
@@ -6430,19 +6430,19 @@
         <v>12299</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6900</v>
+        <v>6783</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>21963</v>
+        <v>22461</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01750413510818319</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.009819923024616983</v>
+        <v>0.009652694191844086</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03125706662005336</v>
+        <v>0.03196570691196936</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>14</v>
@@ -6451,19 +6451,19 @@
         <v>14838</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>8742</v>
+        <v>8001</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>24894</v>
+        <v>24629</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01521525923551553</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.008964754575508726</v>
+        <v>0.008204385455132437</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02552706833390149</v>
+        <v>0.02525550431533273</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>25</v>
@@ -6472,19 +6472,19 @@
         <v>27137</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>17523</v>
+        <v>16796</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>40263</v>
+        <v>39481</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01617381106344187</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01044399071236811</v>
+        <v>0.01001044025934237</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02399673160297838</v>
+        <v>0.02353082089543896</v>
       </c>
     </row>
     <row r="43">
@@ -6501,19 +6501,19 @@
         <v>245606</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>221800</v>
+        <v>218189</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>275235</v>
+        <v>270275</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3495366264225112</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3156568986837688</v>
+        <v>0.3105177995169794</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3917034374356905</v>
+        <v>0.384644980787444</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>282</v>
@@ -6522,19 +6522,19 @@
         <v>302899</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>274501</v>
+        <v>270784</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>331172</v>
+        <v>331188</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3106053943152881</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2814851582261777</v>
+        <v>0.2776736880623019</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3395985681884119</v>
+        <v>0.3396147521242037</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>509</v>
@@ -6543,19 +6543,19 @@
         <v>548505</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>510192</v>
+        <v>507424</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>586182</v>
+        <v>589300</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3269092944723158</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3040749699250913</v>
+        <v>0.3024250055332415</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.349364609177563</v>
+        <v>0.3512231265545894</v>
       </c>
     </row>
     <row r="44">
@@ -6572,19 +6572,19 @@
         <v>438923</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>412340</v>
+        <v>414252</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>462708</v>
+        <v>466281</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6246575273332552</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5868261092586736</v>
+        <v>0.5895466213478764</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6585075271742594</v>
+        <v>0.6635914679955368</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>594</v>
@@ -6593,19 +6593,19 @@
         <v>641684</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>610289</v>
+        <v>609855</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>670546</v>
+        <v>670656</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6580103777900732</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6258172303511625</v>
+        <v>0.6253714756608041</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6876071657331562</v>
+        <v>0.6877199292433696</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1009</v>
@@ -6614,19 +6614,19 @@
         <v>1080608</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1040160</v>
+        <v>1037001</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1121860</v>
+        <v>1121586</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6440426322457614</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6199360508665809</v>
+        <v>0.6180532389476443</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6686291289759909</v>
+        <v>0.6684655024193704</v>
       </c>
     </row>
     <row r="45">
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6599</v>
+        <v>7315</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0292339826029587</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1027213385195401</v>
+        <v>0.113869192354411</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -7028,19 +7028,19 @@
         <v>7647</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3128</v>
+        <v>3503</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14299</v>
+        <v>15073</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1018520720631041</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04166015067711128</v>
+        <v>0.04666028408642044</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1904645704849648</v>
+        <v>0.2007712254988741</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -7049,19 +7049,19 @@
         <v>9525</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4438</v>
+        <v>4417</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17090</v>
+        <v>17384</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06836687436228876</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03185781117398227</v>
+        <v>0.03170487884364563</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1226694715852839</v>
+        <v>0.124776997846453</v>
       </c>
     </row>
     <row r="6">
@@ -7078,19 +7078,19 @@
         <v>5094</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1862</v>
+        <v>1823</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11400</v>
+        <v>10877</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07929193208606578</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02898561057132083</v>
+        <v>0.02838358049512944</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1774551176594966</v>
+        <v>0.1693117427461998</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -7099,19 +7099,19 @@
         <v>10295</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5274</v>
+        <v>5057</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17756</v>
+        <v>17493</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1371241666639012</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07024816267768039</v>
+        <v>0.06735387784255988</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.23650580350902</v>
+        <v>0.2329973391139674</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -7120,19 +7120,19 @@
         <v>15389</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8972</v>
+        <v>9091</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24183</v>
+        <v>25508</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1104569295785526</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06439973856705526</v>
+        <v>0.06525528282292324</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.173582657291306</v>
+        <v>0.1830909969772599</v>
       </c>
     </row>
     <row r="7">
@@ -7149,19 +7149,19 @@
         <v>14237</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8314</v>
+        <v>8032</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21962</v>
+        <v>22393</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2216255206938015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1294147300023403</v>
+        <v>0.1250268940522406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3418720470114308</v>
+        <v>0.3485777307364903</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -7170,19 +7170,19 @@
         <v>16088</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9893</v>
+        <v>9670</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24176</v>
+        <v>23768</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.214287682269601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1317755880658491</v>
+        <v>0.1287984507788049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3220223546803622</v>
+        <v>0.3165803461491191</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -7191,19 +7191,19 @@
         <v>30325</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21254</v>
+        <v>20643</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41840</v>
+        <v>41958</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2176712602755446</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1525574303708703</v>
+        <v>0.1481737084267585</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3003240301311959</v>
+        <v>0.3011693805699303</v>
       </c>
     </row>
     <row r="8">
@@ -7220,19 +7220,19 @@
         <v>43032</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34215</v>
+        <v>34686</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50434</v>
+        <v>50318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.669848564617174</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.532597812911923</v>
+        <v>0.5399354959756303</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7850782495998132</v>
+        <v>0.7832759839090631</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -7241,19 +7241,19 @@
         <v>41047</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32341</v>
+        <v>32040</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50195</v>
+        <v>49894</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5467360790033937</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.430776941873225</v>
+        <v>0.4267717469459967</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6685842465288115</v>
+        <v>0.6645798949306335</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>77</v>
@@ -7262,19 +7262,19 @@
         <v>84078</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>72544</v>
+        <v>70894</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>95135</v>
+        <v>96023</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.603504935783614</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5207094464389131</v>
+        <v>0.5088691699170326</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6828670152602663</v>
+        <v>0.6892441199089395</v>
       </c>
     </row>
     <row r="9">
@@ -7413,19 +7413,19 @@
         <v>2873</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>835</v>
+        <v>885</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6887</v>
+        <v>7906</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05515807611462633</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01602017631645226</v>
+        <v>0.01698682020281857</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1322080562467528</v>
+        <v>0.151757652291055</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -7434,19 +7434,19 @@
         <v>8047</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3597</v>
+        <v>3767</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15684</v>
+        <v>15722</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09902780650972316</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04426170025952949</v>
+        <v>0.04636258161270598</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1930121198864739</v>
+        <v>0.1934751695812254</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -7455,19 +7455,19 @@
         <v>10920</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5492</v>
+        <v>5479</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18741</v>
+        <v>19439</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08189011053982975</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04118648256799975</v>
+        <v>0.04108289691085548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1405373914491542</v>
+        <v>0.145770955593318</v>
       </c>
     </row>
     <row r="12">
@@ -7484,19 +7484,19 @@
         <v>7391</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3147</v>
+        <v>3065</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14639</v>
+        <v>14618</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1418808176399977</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06039977018407579</v>
+        <v>0.05882552197217651</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.281006403512381</v>
+        <v>0.2806116246706679</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -7505,19 +7505,19 @@
         <v>3906</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>942</v>
+        <v>974</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9895</v>
+        <v>8760</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04806577565180385</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01159666862430667</v>
+        <v>0.01198177345087904</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1217739587359867</v>
+        <v>0.107797867980428</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -7526,19 +7526,19 @@
         <v>11297</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5441</v>
+        <v>5599</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19601</v>
+        <v>19439</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08471459141877162</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04079992758646935</v>
+        <v>0.04198603709937575</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1469836546369825</v>
+        <v>0.1457707212174937</v>
       </c>
     </row>
     <row r="13">
@@ -7555,19 +7555,19 @@
         <v>15748</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9911</v>
+        <v>9518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23080</v>
+        <v>22854</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3022980315312451</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1902398568823282</v>
+        <v>0.18270306998105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4430349553728343</v>
+        <v>0.438699223600338</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -7576,19 +7576,19 @@
         <v>17240</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10236</v>
+        <v>11152</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26270</v>
+        <v>25718</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2121631367839029</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1259626028512012</v>
+        <v>0.137243978155911</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3232835172329281</v>
+        <v>0.316496342009895</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -7597,19 +7597,19 @@
         <v>32989</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22886</v>
+        <v>23430</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43863</v>
+        <v>44906</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2473743042231936</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1716194740023418</v>
+        <v>0.1756931282877789</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3289162553928528</v>
+        <v>0.3367414502025099</v>
       </c>
     </row>
     <row r="14">
@@ -7626,19 +7626,19 @@
         <v>26082</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18515</v>
+        <v>18755</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32871</v>
+        <v>33382</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.500663074714131</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3554045871046072</v>
+        <v>0.3600245493383263</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6309748231205996</v>
+        <v>0.6407820525939879</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>50</v>
@@ -7647,19 +7647,19 @@
         <v>52067</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41868</v>
+        <v>43524</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60020</v>
+        <v>60236</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.64074328105457</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5152350916543558</v>
+        <v>0.5356129494607462</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.738619900863416</v>
+        <v>0.7412750604867838</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>75</v>
@@ -7668,19 +7668,19 @@
         <v>78149</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66861</v>
+        <v>65278</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90756</v>
+        <v>89403</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.586020993818205</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5013734857479393</v>
+        <v>0.4895074123700935</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6805607641669968</v>
+        <v>0.6704104492844178</v>
       </c>
     </row>
     <row r="15">
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4716</v>
+        <v>4688</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01071485009287286</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05337891302511649</v>
+        <v>0.0530649308852018</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4923</v>
+        <v>5613</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007922294381407858</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04119896711339563</v>
+        <v>0.04697697098519259</v>
       </c>
     </row>
     <row r="17">
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6787</v>
+        <v>6557</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01508268631213724</v>
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07681912295709868</v>
+        <v>0.0742241351493064</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6330</v>
+        <v>6284</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04081610661810799</v>
@@ -7868,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2032627801931038</v>
+        <v>0.2017979059384079</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9278</v>
+        <v>8767</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02178945395033016</v>
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07764483685674656</v>
+        <v>0.07337005111745783</v>
       </c>
     </row>
     <row r="18">
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9485</v>
+        <v>9373</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03112478834115302</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1073599999011848</v>
+        <v>0.1060949832209133</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5965</v>
+        <v>5948</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06285992213201094</v>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1915574293351148</v>
+        <v>0.1910164397040815</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -7948,19 +7948,19 @@
         <v>4707</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1643</v>
+        <v>1091</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10728</v>
+        <v>11285</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03939575138343716</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0137471727422602</v>
+        <v>0.009128935692073764</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08978049247987534</v>
+        <v>0.09444578212233061</v>
       </c>
     </row>
     <row r="19">
@@ -7977,19 +7977,19 @@
         <v>21096</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13679</v>
+        <v>13098</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30250</v>
+        <v>30002</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2387861557353876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1548385818198993</v>
+        <v>0.1482636371291265</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3424091427320579</v>
+        <v>0.3396002931150572</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -7998,19 +7998,19 @@
         <v>9018</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4865</v>
+        <v>4122</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15007</v>
+        <v>14906</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2895975789117711</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1562397877174913</v>
+        <v>0.1323602444185439</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4818952678353033</v>
+        <v>0.4786516233700431</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -8019,19 +8019,19 @@
         <v>30114</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20940</v>
+        <v>21465</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40597</v>
+        <v>40685</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2520288729707186</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1752437065363305</v>
+        <v>0.1796424029134095</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3397567299674053</v>
+        <v>0.3404922278768878</v>
       </c>
     </row>
     <row r="20">
@@ -8048,19 +8048,19 @@
         <v>62221</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52469</v>
+        <v>52317</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70828</v>
+        <v>70381</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7042915195184493</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5939048051109536</v>
+        <v>0.5921818173536755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.801707515513475</v>
+        <v>0.7966561612248081</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -8069,19 +8069,19 @@
         <v>18894</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13446</v>
+        <v>12917</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24165</v>
+        <v>24096</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.60672639233811</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4317837579729006</v>
+        <v>0.4147835058001775</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7759736675703622</v>
+        <v>0.7737863809066486</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>76</v>
@@ -8090,19 +8090,19 @@
         <v>81116</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>70863</v>
+        <v>70010</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>91778</v>
+        <v>91158</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6788636273141062</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5930549400307403</v>
+        <v>0.5859147105936775</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7680929609128351</v>
+        <v>0.7629058183400683</v>
       </c>
     </row>
     <row r="21">
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6365</v>
+        <v>5552</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009492957117129728</v>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03414086342003921</v>
+        <v>0.02978391910529161</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5381</v>
+        <v>6192</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004605010404096051</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01400271806237546</v>
+        <v>0.01611341760397181</v>
       </c>
     </row>
     <row r="23">
@@ -8270,19 +8270,19 @@
         <v>3373</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10512</v>
+        <v>9789</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01704425480364744</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004457204118324973</v>
+        <v>0.004444373355104854</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05312331118636762</v>
+        <v>0.04946934116333387</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -8291,19 +8291,19 @@
         <v>3373</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9940</v>
+        <v>9246</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008776128261789393</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002304279982841127</v>
+        <v>0.002291374372839692</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02586468806211957</v>
+        <v>0.02405916652616576</v>
       </c>
     </row>
     <row r="24">
@@ -8320,19 +8320,19 @@
         <v>5913</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2066</v>
+        <v>2026</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13813</v>
+        <v>13775</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0317165131012818</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01108341020278486</v>
+        <v>0.01086782505941503</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07409583400023954</v>
+        <v>0.07389266368892826</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -8341,19 +8341,19 @@
         <v>8042</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3094</v>
+        <v>3490</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16298</v>
+        <v>16570</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04064106614631783</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01563470790405517</v>
+        <v>0.01763834108897988</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08236327953794767</v>
+        <v>0.08373887578674692</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -8362,19 +8362,19 @@
         <v>13955</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7246</v>
+        <v>7702</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23872</v>
+        <v>24613</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03631178717484343</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01885544635300724</v>
+        <v>0.02004288758130581</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06211940259470546</v>
+        <v>0.06404606804844226</v>
       </c>
     </row>
     <row r="25">
@@ -8391,19 +8391,19 @@
         <v>51056</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39964</v>
+        <v>39618</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63519</v>
+        <v>63228</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2738725096055741</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2143704555888537</v>
+        <v>0.2125180074960006</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3407265875174881</v>
+        <v>0.3391620551332982</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -8412,19 +8412,19 @@
         <v>63708</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50838</v>
+        <v>50114</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77786</v>
+        <v>77286</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3219557842344339</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2569152394131765</v>
+        <v>0.253256692750075</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3931015875541768</v>
+        <v>0.390576823085681</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -8433,19 +8433,19 @@
         <v>114764</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>97121</v>
+        <v>96154</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>134266</v>
+        <v>132614</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2986307046836841</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.252720813040249</v>
+        <v>0.2502062207329245</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3493791460339509</v>
+        <v>0.3450805510365839</v>
       </c>
     </row>
     <row r="26">
@@ -8462,19 +8462,19 @@
         <v>127684</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114751</v>
+        <v>114722</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>139291</v>
+        <v>139997</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6849180201760143</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6155402150595062</v>
+        <v>0.6153876342051164</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7471790255848746</v>
+        <v>0.7509624172503204</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>116</v>
@@ -8483,19 +8483,19 @@
         <v>122755</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>108139</v>
+        <v>108490</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>136292</v>
+        <v>137024</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6203588948156008</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.546493827680968</v>
+        <v>0.5482685507942172</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6887714402156325</v>
+        <v>0.692469515968904</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>238</v>
@@ -8504,19 +8504,19 @@
         <v>250439</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>230490</v>
+        <v>231579</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>269041</v>
+        <v>270008</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6516763694755869</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.59976643064552</v>
+        <v>0.6026005307929052</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7000814152715445</v>
+        <v>0.7025960027195983</v>
       </c>
     </row>
     <row r="27">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4334</v>
+        <v>5233</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009222071680123086</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04418678043376779</v>
+        <v>0.05335329974120125</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -8645,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4552</v>
+        <v>4858</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003665257917172142</v>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0184454307265756</v>
+        <v>0.01968747792324344</v>
       </c>
     </row>
     <row r="29">
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5917</v>
+        <v>5296</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01077547043007791</v>
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06032699182686042</v>
+        <v>0.0540008519982241</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -8692,19 +8692,19 @@
         <v>2867</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7751</v>
+        <v>7823</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01928015123515112</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006101715256123316</v>
+        <v>0.006183411240864985</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05213149173334627</v>
+        <v>0.05261071694271809</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -8713,19 +8713,19 @@
         <v>3924</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>966</v>
+        <v>1047</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9637</v>
+        <v>9866</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01590001608384849</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003914078437722214</v>
+        <v>0.004241313214422714</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03905586885443258</v>
+        <v>0.03998062812751679</v>
       </c>
     </row>
     <row r="30">
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6629</v>
+        <v>7824</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02140186270935456</v>
@@ -8754,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06759302078137464</v>
+        <v>0.07977361139521649</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6917</v>
+        <v>6835</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.008506043919260239</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02803048096871464</v>
+        <v>0.02770055824776387</v>
       </c>
     </row>
     <row r="31">
@@ -8805,19 +8805,19 @@
         <v>24365</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>16581</v>
+        <v>16558</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35011</v>
+        <v>34854</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2484323615156801</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1690698391524362</v>
+        <v>0.1688278229042294</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3569869498106469</v>
+        <v>0.3553872272373334</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>43</v>
@@ -8826,19 +8826,19 @@
         <v>45462</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>34724</v>
+        <v>34068</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>57306</v>
+        <v>58306</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3057532421110312</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2335371380544114</v>
+        <v>0.2291215629725985</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3854103863222377</v>
+        <v>0.3921374674027749</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>65</v>
@@ -8847,19 +8847,19 @@
         <v>69826</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>55466</v>
+        <v>54428</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>83727</v>
+        <v>84411</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2829713966961639</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2247759500068124</v>
+        <v>0.2205695100462075</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3393052922160686</v>
+        <v>0.3420773632145484</v>
       </c>
     </row>
     <row r="32">
@@ -8876,19 +8876,19 @@
         <v>69649</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>58751</v>
+        <v>60085</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>78207</v>
+        <v>78512</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7101682336647643</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5990515818772445</v>
+        <v>0.6126447259773979</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7974315887680725</v>
+        <v>0.8005427302727762</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>93</v>
@@ -8897,19 +8897,19 @@
         <v>100359</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>88397</v>
+        <v>87354</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>111192</v>
+        <v>111791</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6749666066538177</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5945106278551262</v>
+        <v>0.5874956455661487</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7478194961123764</v>
+        <v>0.7518524018286787</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>159</v>
@@ -8918,19 +8918,19 @@
         <v>170008</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>155651</v>
+        <v>154955</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>184198</v>
+        <v>185577</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6889572853835552</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6307765617211373</v>
+        <v>0.6279578006092729</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7464630857047603</v>
+        <v>0.752050236241582</v>
       </c>
     </row>
     <row r="33">
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7544</v>
+        <v>7635</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0103667101146482</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03504529498582228</v>
+        <v>0.03546929799179716</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7079</v>
+        <v>7463</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008040212460688409</v>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02550495075996789</v>
+        <v>0.02688769317910201</v>
       </c>
     </row>
     <row r="35">
@@ -9085,19 +9085,19 @@
         <v>2944</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7774</v>
+        <v>7937</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04725685442539597</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01468060125903309</v>
+        <v>0.01476321910586838</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.124804179234484</v>
+        <v>0.1274244973167462</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -9106,19 +9106,19 @@
         <v>5587</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1001</v>
+        <v>1110</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13453</v>
+        <v>13327</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02595227261387515</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.004651965802848979</v>
+        <v>0.005154496191532608</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06249628760593707</v>
+        <v>0.06191218182835397</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -9127,19 +9127,19 @@
         <v>8530</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3797</v>
+        <v>3815</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>17385</v>
+        <v>16668</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03073344803548379</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01367970939122493</v>
+        <v>0.01374593094020313</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06263540816706197</v>
+        <v>0.060052506182677</v>
       </c>
     </row>
     <row r="36">
@@ -9156,19 +9156,19 @@
         <v>3037</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8498</v>
+        <v>8129</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04875229583119679</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01506509853764352</v>
+        <v>0.01535691355133376</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1364354287031481</v>
+        <v>0.1304999187793015</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -9190,19 +9190,19 @@
         <v>3037</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>9200</v>
+        <v>8276</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01094099291116158</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.003453911255357289</v>
+        <v>0.003413296127181532</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03314745587571847</v>
+        <v>0.02981807995900268</v>
       </c>
     </row>
     <row r="37">
@@ -9219,19 +9219,19 @@
         <v>14480</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>8732</v>
+        <v>8396</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>22217</v>
+        <v>21758</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2324686432465936</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1401796350844257</v>
+        <v>0.1347950686114857</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3566750028655091</v>
+        <v>0.3493070442751009</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>50</v>
@@ -9240,19 +9240,19 @@
         <v>54601</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>42192</v>
+        <v>41795</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>69525</v>
+        <v>67844</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2536473915946701</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1960027894285011</v>
+        <v>0.1941577154596411</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.322977393620301</v>
+        <v>0.3151675863495522</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>64</v>
@@ -9261,19 +9261,19 @@
         <v>69081</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>54686</v>
+        <v>55048</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>84862</v>
+        <v>86122</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2488944557258468</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1970302734788106</v>
+        <v>0.1983347813468092</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3057538096317622</v>
+        <v>0.3102918871464118</v>
       </c>
     </row>
     <row r="38">
@@ -9290,19 +9290,19 @@
         <v>41828</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>33868</v>
+        <v>34221</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>48343</v>
+        <v>48689</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6715222064968136</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5437385291617168</v>
+        <v>0.5493965746396512</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.776117777778101</v>
+        <v>0.7816829701122952</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>134</v>
@@ -9311,19 +9311,19 @@
         <v>152844</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>137796</v>
+        <v>138642</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>166218</v>
+        <v>166166</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7100336256768066</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6401294375274229</v>
+        <v>0.6440597211811895</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7721626529850938</v>
+        <v>0.7719219447944639</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>173</v>
@@ -9332,19 +9332,19 @@
         <v>194672</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>177573</v>
+        <v>176636</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>209875</v>
+        <v>210059</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7013908908668195</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6397839698892731</v>
+        <v>0.6364103438932511</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7561676630302079</v>
+        <v>0.7568301230750889</v>
       </c>
     </row>
     <row r="39">
@@ -9436,19 +9436,19 @@
         <v>3621</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>8943</v>
+        <v>8909</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.006565695977468221</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001692978084031859</v>
+        <v>0.001711785526025678</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01621671296148254</v>
+        <v>0.01615529083179545</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7091</v>
+        <v>8830</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002978188307501889</v>
@@ -9469,7 +9469,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.009463989240561238</v>
+        <v>0.01178413934318498</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>6</v>
@@ -9478,19 +9478,19 @@
         <v>5852</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2576</v>
+        <v>2232</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>12587</v>
+        <v>12687</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.004499125419936563</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001980521530913754</v>
+        <v>0.001716237606082064</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.009676650476950575</v>
+        <v>0.009753819959680795</v>
       </c>
     </row>
     <row r="41">
@@ -9507,19 +9507,19 @@
         <v>10084</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5329</v>
+        <v>4460</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>17321</v>
+        <v>17239</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01828632848954022</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.009662700608866972</v>
+        <v>0.008088145073686263</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03140860721579695</v>
+        <v>0.03126031619481918</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>25</v>
@@ -9528,19 +9528,19 @@
         <v>28791</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>19725</v>
+        <v>19656</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>43234</v>
+        <v>42080</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03842314931591422</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0263245751884736</v>
+        <v>0.02623172285155487</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05769906711831881</v>
+        <v>0.05615883337894778</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>35</v>
@@ -9549,19 +9549,19 @@
         <v>38875</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>26500</v>
+        <v>27715</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>53157</v>
+        <v>53836</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02988606983377694</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02037218060076634</v>
+        <v>0.0213068377143946</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04086545811234452</v>
+        <v>0.0413874356351127</v>
       </c>
     </row>
     <row r="42">
@@ -9578,19 +9578,19 @@
         <v>26283</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>17527</v>
+        <v>17367</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>39280</v>
+        <v>40033</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04766043982082384</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03178292317364129</v>
+        <v>0.03149213085465896</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07122902791368681</v>
+        <v>0.07259434050587429</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>23</v>
@@ -9599,19 +9599,19 @@
         <v>24200</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>16181</v>
+        <v>15860</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>36446</v>
+        <v>36277</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03229665739171372</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02159412959454144</v>
+        <v>0.02116602006989185</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04863946248548355</v>
+        <v>0.04841476234355619</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>46</v>
@@ -9620,19 +9620,19 @@
         <v>50483</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>37874</v>
+        <v>37594</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>66404</v>
+        <v>66504</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03881018963568093</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02911683127853222</v>
+        <v>0.02890149271430267</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05104945554130856</v>
+        <v>0.05112683282206947</v>
       </c>
     </row>
     <row r="43">
@@ -9649,19 +9649,19 @@
         <v>140982</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>119648</v>
+        <v>118903</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>160745</v>
+        <v>161964</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2556496495535676</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2169628131188098</v>
+        <v>0.21561227689242</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.291485633377062</v>
+        <v>0.2936974915823153</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>197</v>
@@ -9670,19 +9670,19 @@
         <v>206117</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>182450</v>
+        <v>181009</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>232558</v>
+        <v>231203</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2750775337706813</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2434920605696484</v>
+        <v>0.2415696675966482</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3103651058034916</v>
+        <v>0.3085567887427577</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>329</v>
@@ -9691,19 +9691,19 @@
         <v>347099</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>313971</v>
+        <v>313595</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>380612</v>
+        <v>381737</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2668410105795909</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2413727323678632</v>
+        <v>0.241084033241306</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2926043650493434</v>
+        <v>0.2934697447963109</v>
       </c>
     </row>
     <row r="44">
@@ -9720,19 +9720,19 @@
         <v>370496</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>348424</v>
+        <v>347784</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>394473</v>
+        <v>392631</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6718378861586002</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6318129935085967</v>
+        <v>0.630651891702507</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7153150183123468</v>
+        <v>0.7119759100943996</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>450</v>
@@ -9741,19 +9741,19 @@
         <v>487966</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>459588</v>
+        <v>461005</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>514915</v>
+        <v>515024</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6512244712141889</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6133518993671226</v>
+        <v>0.6152433167882995</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6871897014600021</v>
+        <v>0.6873354789812673</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>798</v>
@@ -9762,19 +9762,19 @@
         <v>858462</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>821219</v>
+        <v>819133</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>893469</v>
+        <v>894052</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6599636045310147</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6313316612192578</v>
+        <v>0.6297282953280511</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6868762730855851</v>
+        <v>0.6873243946388683</v>
       </c>
     </row>
     <row r="45">
@@ -10155,19 +10155,19 @@
         <v>9984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4965</v>
+        <v>5097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17916</v>
+        <v>18120</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07635768497904973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03796982382204464</v>
+        <v>0.03898500729799272</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1370232210280009</v>
+        <v>0.1385805828097178</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -10176,19 +10176,19 @@
         <v>9218</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5304</v>
+        <v>5619</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15016</v>
+        <v>15067</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07814339049558426</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04496256888750882</v>
+        <v>0.0476364031322203</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1272940588535639</v>
+        <v>0.1277314464143837</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -10197,19 +10197,19 @@
         <v>19202</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12552</v>
+        <v>12262</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28516</v>
+        <v>27961</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07720462259365028</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0504697179557141</v>
+        <v>0.0493001697408909</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1146536537726308</v>
+        <v>0.1124245333970605</v>
       </c>
     </row>
     <row r="6">
@@ -10226,19 +10226,19 @@
         <v>14768</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8753</v>
+        <v>8387</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24410</v>
+        <v>23353</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1129503526191455</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0669412648765895</v>
+        <v>0.06414649870790162</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1866909980588773</v>
+        <v>0.1786035084417476</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -10247,19 +10247,19 @@
         <v>8546</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4141</v>
+        <v>4240</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14953</v>
+        <v>16349</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0724494285946445</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03510283897339559</v>
+        <v>0.03594168225794429</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1267630570179543</v>
+        <v>0.1385926215773316</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -10268,19 +10268,19 @@
         <v>23315</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15448</v>
+        <v>15642</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33646</v>
+        <v>33849</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09374127493818611</v>
+        <v>0.09374127493818613</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06211378075201531</v>
+        <v>0.0628915326792072</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1352810331923505</v>
+        <v>0.1360970431621815</v>
       </c>
     </row>
     <row r="7">
@@ -10297,19 +10297,19 @@
         <v>19484</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11785</v>
+        <v>10905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31995</v>
+        <v>30173</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1490134731056866</v>
+        <v>0.1490134731056867</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09013100299873679</v>
+        <v>0.08340331925362279</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.244700777242807</v>
+        <v>0.2307674041023047</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -10318,19 +10318,19 @@
         <v>26531</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18766</v>
+        <v>19517</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35598</v>
+        <v>35501</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2249092757596193</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1590899574951047</v>
+        <v>0.1654569070824267</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3017784555588451</v>
+        <v>0.3009537824126111</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -10339,19 +10339,19 @@
         <v>46014</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34946</v>
+        <v>35044</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61040</v>
+        <v>58596</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1850098955072152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1405084022064631</v>
+        <v>0.1409003934843997</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2454250626721592</v>
+        <v>0.2355995669146545</v>
       </c>
     </row>
     <row r="8">
@@ -10368,19 +10368,19 @@
         <v>86515</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74245</v>
+        <v>74010</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96768</v>
+        <v>98182</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6616784892961182</v>
+        <v>0.6616784892961183</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5678323919220388</v>
+        <v>0.566034261074832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7400934412827385</v>
+        <v>0.7509057524192896</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>100</v>
@@ -10389,19 +10389,19 @@
         <v>73666</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64219</v>
+        <v>63847</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82795</v>
+        <v>82700</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.624497905150152</v>
+        <v>0.6244979051501519</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5444078891994361</v>
+        <v>0.5412512369911893</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7018872843532409</v>
+        <v>0.7010777402656346</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>183</v>
@@ -10410,19 +10410,19 @@
         <v>160182</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>143703</v>
+        <v>143564</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>174822</v>
+        <v>173153</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6440442069609484</v>
+        <v>0.6440442069609486</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5777878998151078</v>
+        <v>0.5772287724190024</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7029104889950735</v>
+        <v>0.6961992772865868</v>
       </c>
     </row>
     <row r="9">
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6958</v>
+        <v>6327</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02402555262334569</v>
@@ -10526,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08462101841768016</v>
+        <v>0.07695407679771039</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -10538,16 +10538,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3300</v>
+        <v>3559</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.006621736252943653</v>
+        <v>0.006621736252943655</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03022846005974923</v>
+        <v>0.03260496536673224</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -10556,19 +10556,19 @@
         <v>2698</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>742</v>
+        <v>712</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7446</v>
+        <v>7398</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01409883997101562</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003879505290816672</v>
+        <v>0.003719680273090368</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03890643468636351</v>
+        <v>0.03865450381728924</v>
       </c>
     </row>
     <row r="11">
@@ -10585,19 +10585,19 @@
         <v>4367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1232</v>
+        <v>1581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9305</v>
+        <v>9809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05311236649870851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01498541552337294</v>
+        <v>0.01922921153562755</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1131653881461072</v>
+        <v>0.1192952024359532</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -10606,19 +10606,19 @@
         <v>8050</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4743</v>
+        <v>4465</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13808</v>
+        <v>13716</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.07374366585767965</v>
+        <v>0.07374366585767966</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04345342412341904</v>
+        <v>0.04090063960021222</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1264962126087076</v>
+        <v>0.1256489993222119</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -10627,19 +10627,19 @@
         <v>12417</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7808</v>
+        <v>7245</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19703</v>
+        <v>19796</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.06487995678017143</v>
+        <v>0.06487995678017142</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04079894119500842</v>
+        <v>0.03785423383640178</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1029502513535686</v>
+        <v>0.1034357840013183</v>
       </c>
     </row>
     <row r="12">
@@ -10656,19 +10656,19 @@
         <v>6312</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2233</v>
+        <v>2095</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12543</v>
+        <v>11905</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07677165779851189</v>
+        <v>0.07677165779851187</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02715851736438226</v>
+        <v>0.02547563797980643</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1525496957694635</v>
+        <v>0.1447925088571232</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -10677,19 +10677,19 @@
         <v>9290</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5426</v>
+        <v>5602</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15357</v>
+        <v>15812</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08510578531802783</v>
+        <v>0.08510578531802786</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04970395618628724</v>
+        <v>0.05131871506282092</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1406811750624143</v>
+        <v>0.1448555931962506</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -10698,19 +10698,19 @@
         <v>15602</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9628</v>
+        <v>9541</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23514</v>
+        <v>23243</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.081525240997356</v>
+        <v>0.08152524099735599</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05030642536658714</v>
+        <v>0.04985460140140028</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1228632777970565</v>
+        <v>0.1214487938853082</v>
       </c>
     </row>
     <row r="13">
@@ -10727,19 +10727,19 @@
         <v>12691</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7028</v>
+        <v>7072</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21307</v>
+        <v>21278</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1543558169604012</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08547193360516482</v>
+        <v>0.08600544310607987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.259136924207657</v>
+        <v>0.2587876836947841</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -10748,19 +10748,19 @@
         <v>21819</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14928</v>
+        <v>14809</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30061</v>
+        <v>29437</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1998813864910103</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1367548250289828</v>
+        <v>0.1356689754388605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2753877209742509</v>
+        <v>0.2696703564946492</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -10769,19 +10769,19 @@
         <v>34510</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25315</v>
+        <v>24761</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46189</v>
+        <v>45422</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1803224921680637</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1322740041529802</v>
+        <v>0.129379938884315</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2413470509943607</v>
+        <v>0.2373368875748958</v>
       </c>
     </row>
     <row r="14">
@@ -10798,19 +10798,19 @@
         <v>56876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48088</v>
+        <v>47392</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65138</v>
+        <v>64356</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6917346061190326</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.584857360962498</v>
+        <v>0.5763911248182225</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7922174866236188</v>
+        <v>0.7827105276141882</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>90</v>
@@ -10819,19 +10819,19 @@
         <v>69277</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59765</v>
+        <v>59969</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78335</v>
+        <v>77657</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6346474260803384</v>
+        <v>0.6346474260803388</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5475051345882648</v>
+        <v>0.5493734948913046</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7176229369302202</v>
+        <v>0.7114090222020572</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>146</v>
@@ -10840,19 +10840,19 @@
         <v>126154</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>114084</v>
+        <v>113731</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138833</v>
+        <v>137909</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6591734700833933</v>
+        <v>0.6591734700833932</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5961045972594285</v>
+        <v>0.5942638211587096</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7254252873491084</v>
+        <v>0.7205948009092125</v>
       </c>
     </row>
     <row r="15">
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6161</v>
+        <v>6155</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01788712333332743</v>
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06369036929214701</v>
+        <v>0.06363413433129281</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3735</v>
+        <v>3696</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01194453172208836</v>
@@ -11024,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06349163072697933</v>
+        <v>0.0628167094684656</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -11033,19 +11033,19 @@
         <v>2433</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6726</v>
+        <v>6803</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0156396541514008</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004467105951905521</v>
+        <v>0.004413329575515561</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04323915764099062</v>
+        <v>0.04373132050106374</v>
       </c>
     </row>
     <row r="18">
@@ -11062,19 +11062,19 @@
         <v>4753</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1187</v>
+        <v>1590</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11626</v>
+        <v>12085</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04913482963096781</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01226944049905799</v>
+        <v>0.01643940029042225</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1201967057955477</v>
+        <v>0.1249429163290933</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -11083,19 +11083,19 @@
         <v>2700</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>655</v>
+        <v>694</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6432</v>
+        <v>6650</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04589242686379517</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01112871354853724</v>
+        <v>0.01179414354336004</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1093339172796773</v>
+        <v>0.1130300281395244</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -11104,19 +11104,19 @@
         <v>7453</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3206</v>
+        <v>3399</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14800</v>
+        <v>15534</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0479085632523676</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02061079055922121</v>
+        <v>0.02184786597054555</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0951440959093578</v>
+        <v>0.09986066205139814</v>
       </c>
     </row>
     <row r="19">
@@ -11133,19 +11133,19 @@
         <v>20107</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13002</v>
+        <v>12914</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29587</v>
+        <v>28939</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2078707436046141</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1344191013306575</v>
+        <v>0.1335073015573422</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3058765808013295</v>
+        <v>0.2991843615776899</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -11154,19 +11154,19 @@
         <v>12551</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7834</v>
+        <v>7880</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18938</v>
+        <v>18830</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2133399882088922</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.133154423240913</v>
+        <v>0.1339445163168266</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3218922966840238</v>
+        <v>0.3200719011601406</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>41</v>
@@ -11175,19 +11175,19 @@
         <v>32658</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23884</v>
+        <v>23357</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>43181</v>
+        <v>42990</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2099391944591682</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1535390630431358</v>
+        <v>0.1501512523101705</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2775858843631548</v>
+        <v>0.276357020862238</v>
       </c>
     </row>
     <row r="20">
@@ -11204,19 +11204,19 @@
         <v>70137</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59451</v>
+        <v>59682</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>77859</v>
+        <v>77983</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7251073034310905</v>
+        <v>0.7251073034310906</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6146283604476729</v>
+        <v>0.6170104310593552</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8049338298111443</v>
+        <v>0.8062192267440637</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -11225,19 +11225,19 @@
         <v>42878</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36521</v>
+        <v>36200</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48397</v>
+        <v>47960</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7288230532052243</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6207711727485649</v>
+        <v>0.6153179771083699</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8226372869464207</v>
+        <v>0.8152101714780101</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>130</v>
@@ -11246,19 +11246,19 @@
         <v>113015</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>102697</v>
+        <v>101688</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>123176</v>
+        <v>123170</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7265125881370634</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6601822711566078</v>
+        <v>0.6536965020630122</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7918345461559344</v>
+        <v>0.7917962954541039</v>
       </c>
     </row>
     <row r="21">
@@ -11350,19 +11350,19 @@
         <v>2818</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7760</v>
+        <v>8028</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0112823729576259</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003239953634277025</v>
+        <v>0.003226574892982028</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03106617377381314</v>
+        <v>0.03213793823754774</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -11371,19 +11371,19 @@
         <v>2088</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>306</v>
+        <v>648</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5515</v>
+        <v>6136</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008512805615901895</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001249466757321729</v>
+        <v>0.002642377242354172</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02248134227449513</v>
+        <v>0.02501499266203874</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -11392,19 +11392,19 @@
         <v>4906</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1452</v>
+        <v>1894</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10412</v>
+        <v>10717</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.00991014533657476</v>
+        <v>0.009910145336574765</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002932805375932956</v>
+        <v>0.003825317761123873</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02103049766210718</v>
+        <v>0.0216465736011461</v>
       </c>
     </row>
     <row r="23">
@@ -11424,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7560</v>
+        <v>7303</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008406411756327453</v>
@@ -11433,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03026764111161689</v>
+        <v>0.0292356986326909</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -11442,19 +11442,19 @@
         <v>2917</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1112</v>
+        <v>1031</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7004</v>
+        <v>6494</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01189229007919737</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004533494645585387</v>
+        <v>0.004201760023242313</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02855484650395286</v>
+        <v>0.02647283229871991</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -11463,19 +11463,19 @@
         <v>5017</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2105</v>
+        <v>1854</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10248</v>
+        <v>10616</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.01013354741618395</v>
+        <v>0.01013354741618396</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004252469196108752</v>
+        <v>0.003745653043860037</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02069878336416298</v>
+        <v>0.02144307060360381</v>
       </c>
     </row>
     <row r="24">
@@ -11492,19 +11492,19 @@
         <v>4365</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15271</v>
+        <v>13898</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01747629212797857</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00346292179826486</v>
+        <v>0.003478583956952909</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06113801307720379</v>
+        <v>0.05563828122666157</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -11513,19 +11513,19 @@
         <v>8829</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4109</v>
+        <v>3800</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18198</v>
+        <v>18850</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03599269785065435</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01675038703653305</v>
+        <v>0.01548980333486766</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07418633548229286</v>
+        <v>0.07684653356314403</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>12</v>
@@ -11534,19 +11534,19 @@
         <v>13194</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6848</v>
+        <v>6725</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23998</v>
+        <v>23742</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.02665054941808244</v>
+        <v>0.02665054941808245</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01383105840941346</v>
+        <v>0.01358259271717524</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04847321928629202</v>
+        <v>0.04795440904944173</v>
       </c>
     </row>
     <row r="25">
@@ -11563,19 +11563,19 @@
         <v>53617</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38482</v>
+        <v>39507</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>69589</v>
+        <v>70477</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2146515148074393</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1540589286086131</v>
+        <v>0.1581616044610147</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.278594333216048</v>
+        <v>0.2821482158525769</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -11584,19 +11584,19 @@
         <v>49261</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38440</v>
+        <v>38357</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61556</v>
+        <v>61430</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2008199984666479</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1567069502516139</v>
+        <v>0.1563698463312089</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2509426837330057</v>
+        <v>0.2504289164686559</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>109</v>
@@ -11605,19 +11605,19 @@
         <v>102878</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>84289</v>
+        <v>84915</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>122481</v>
+        <v>123791</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2077984628964359</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1702509936151538</v>
+        <v>0.1715162143467211</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2473934822058775</v>
+        <v>0.2500398891547155</v>
       </c>
     </row>
     <row r="26">
@@ -11634,19 +11634,19 @@
         <v>186886</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>169605</v>
+        <v>170966</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>201465</v>
+        <v>201575</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7481834083506288</v>
+        <v>0.7481834083506289</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6789988154917053</v>
+        <v>0.6844453096625611</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.806548348917106</v>
+        <v>0.8069862731350984</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>259</v>
@@ -11655,19 +11655,19 @@
         <v>182203</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>169001</v>
+        <v>169326</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>194973</v>
+        <v>195318</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7427822079875985</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6889631987403358</v>
+        <v>0.6902848943515927</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7948422673651929</v>
+        <v>0.7962471924004262</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>445</v>
@@ -11676,19 +11676,19 @@
         <v>369089</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>347498</v>
+        <v>348300</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>387454</v>
+        <v>388478</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7455072949327228</v>
+        <v>0.7455072949327229</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.701895686350777</v>
+        <v>0.7035162015388815</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7826010566240394</v>
+        <v>0.7846700818066431</v>
       </c>
     </row>
     <row r="27">
@@ -11783,16 +11783,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3927</v>
+        <v>4522</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.008220969592550417</v>
+        <v>0.008220969592550413</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0359144975240184</v>
+        <v>0.04136135133421259</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -11804,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5782</v>
+        <v>6230</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005827865356199083</v>
@@ -11813,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02901958819019421</v>
+        <v>0.03126789593495467</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -11825,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7533</v>
+        <v>6967</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006675811937678421</v>
@@ -11834,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0244126324553103</v>
+        <v>0.02257735494723837</v>
       </c>
     </row>
     <row r="29">
@@ -11854,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7448</v>
+        <v>7265</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02088702895067063</v>
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06811980232399527</v>
+        <v>0.06644539032591126</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -11872,19 +11872,19 @@
         <v>3886</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1353</v>
+        <v>1218</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9295</v>
+        <v>9028</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01950352013162364</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006792854821705247</v>
+        <v>0.006111623201685379</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04664975372306035</v>
+        <v>0.04531355372000546</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -11893,19 +11893,19 @@
         <v>6170</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2330</v>
+        <v>2751</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11709</v>
+        <v>12889</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01999373763060984</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007549700779577798</v>
+        <v>0.008916367361599734</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03794296065559329</v>
+        <v>0.04176740229879901</v>
       </c>
     </row>
     <row r="30">
@@ -11925,16 +11925,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20181</v>
+        <v>22170</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.04611646496520094</v>
+        <v>0.04611646496520092</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1845732475830985</v>
+        <v>0.2027611934026296</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -11943,19 +11943,19 @@
         <v>3690</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1300</v>
+        <v>1348</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7950</v>
+        <v>7794</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01852043603202131</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.006523067227034627</v>
+        <v>0.006763470175848024</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0399006044460654</v>
+        <v>0.0391161148765208</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -11964,19 +11964,19 @@
         <v>8733</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3404</v>
+        <v>3136</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>22501</v>
+        <v>22914</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.02829851340986739</v>
+        <v>0.02829851340986738</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01103044130425639</v>
+        <v>0.0101614346096161</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07291485164081213</v>
+        <v>0.07425450989169338</v>
       </c>
     </row>
     <row r="31">
@@ -11993,19 +11993,19 @@
         <v>21808</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14040</v>
+        <v>14309</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31617</v>
+        <v>32217</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1994529327674814</v>
+        <v>0.1994529327674813</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1284041281376881</v>
+        <v>0.1308684560251145</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.289157512331448</v>
+        <v>0.2946501444518669</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>66</v>
@@ -12014,19 +12014,19 @@
         <v>41071</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>32664</v>
+        <v>31369</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>51555</v>
+        <v>51004</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.206134327417595</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1639404343538875</v>
+        <v>0.1574382596841131</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2587531202223844</v>
+        <v>0.2559851286006776</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>87</v>
@@ -12035,19 +12035,19 @@
         <v>62880</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>51468</v>
+        <v>51216</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>76261</v>
+        <v>76928</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2037669145539932</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1667870425521777</v>
+        <v>0.1659705897685445</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2471308232349891</v>
+        <v>0.2492917377144453</v>
       </c>
     </row>
     <row r="32">
@@ -12064,19 +12064,19 @@
         <v>79307</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>65960</v>
+        <v>67369</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>89140</v>
+        <v>88290</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7253226037240967</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6032544570884938</v>
+        <v>0.6161360684778721</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8152490337744673</v>
+        <v>0.8074761028908952</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>233</v>
@@ -12085,19 +12085,19 @@
         <v>149437</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>138399</v>
+        <v>139267</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>158494</v>
+        <v>160681</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7500138510625608</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6946167373221358</v>
+        <v>0.6989754870680436</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7954736583660306</v>
+        <v>0.8064485928224909</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>323</v>
@@ -12106,19 +12106,19 @@
         <v>228744</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>214185</v>
+        <v>212576</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>242650</v>
+        <v>242724</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7412650224678512</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6940863874415807</v>
+        <v>0.6888696102155943</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7863285702133622</v>
+        <v>0.786566870955007</v>
       </c>
     </row>
     <row r="33">
@@ -12270,19 +12270,19 @@
         <v>4655</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1388</v>
+        <v>1588</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12193</v>
+        <v>12030</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02656724927951221</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007921946781005045</v>
+        <v>0.009064786204418711</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06958953207857535</v>
+        <v>0.0686617846531532</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -12291,19 +12291,19 @@
         <v>4655</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1657</v>
+        <v>1749</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10982</v>
+        <v>12878</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02139304071862547</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007615181075806352</v>
+        <v>0.008035995465282697</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05047075454707681</v>
+        <v>0.05918604770273508</v>
       </c>
     </row>
     <row r="36">
@@ -12333,19 +12333,19 @@
         <v>7842</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3384</v>
+        <v>3702</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16203</v>
+        <v>17053</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04475528096677937</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01931584113042116</v>
+        <v>0.02112816236971429</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09247727830462761</v>
+        <v>0.09732583332008626</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -12354,19 +12354,19 @@
         <v>7842</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3417</v>
+        <v>3726</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>16011</v>
+        <v>17137</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.03603879114553986</v>
+        <v>0.03603879114553985</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01570188792497353</v>
+        <v>0.01712279377336234</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07358285745915201</v>
+        <v>0.0787593384686744</v>
       </c>
     </row>
     <row r="37">
@@ -12383,19 +12383,19 @@
         <v>7892</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1900</v>
+        <v>2332</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>18078</v>
+        <v>18204</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1862428446934921</v>
+        <v>0.186242844693492</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04482833518982439</v>
+        <v>0.05503528071773814</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4266062318364672</v>
+        <v>0.4295667930119877</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>41</v>
@@ -12404,19 +12404,19 @@
         <v>28744</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>20348</v>
+        <v>20516</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>40216</v>
+        <v>39248</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1640533728742001</v>
+        <v>0.1640533728742002</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1161359704011797</v>
+        <v>0.1170905352771097</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2295304557841961</v>
+        <v>0.2240047090453926</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>45</v>
@@ -12425,19 +12425,19 @@
         <v>36637</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>26213</v>
+        <v>25905</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>50870</v>
+        <v>50491</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1683749702605534</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1204721013077679</v>
+        <v>0.1190526910321793</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.233791530512469</v>
+        <v>0.2320474540379436</v>
       </c>
     </row>
     <row r="38">
@@ -12454,19 +12454,19 @@
         <v>34485</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>24299</v>
+        <v>24173</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>40477</v>
+        <v>40045</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.8137571553065081</v>
+        <v>0.8137571553065079</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5733937681635332</v>
+        <v>0.5704332069880124</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9551716648101757</v>
+        <v>0.9449647192822619</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>196</v>
@@ -12475,19 +12475,19 @@
         <v>133971</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>120544</v>
+        <v>122122</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>143438</v>
+        <v>143589</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.7646240968795081</v>
+        <v>0.7646240968795083</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6879908545280807</v>
+        <v>0.6969993272851026</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8186571414427154</v>
+        <v>0.8195221599659238</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>212</v>
@@ -12496,19 +12496,19 @@
         <v>168456</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>154393</v>
+        <v>154369</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>180761</v>
+        <v>180697</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.7741931978752814</v>
+        <v>0.7741931978752813</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7095629519860167</v>
+        <v>0.7094537791126572</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8307449627672223</v>
+        <v>0.8304529222178362</v>
       </c>
     </row>
     <row r="39">
@@ -12600,19 +12600,19 @@
         <v>5693</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2496</v>
+        <v>2593</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12179</v>
+        <v>11932</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.008004036319913961</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003509511605729659</v>
+        <v>0.00364640737303089</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01712470566553953</v>
+        <v>0.01677738253489486</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -12621,19 +12621,19 @@
         <v>3972</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1441</v>
+        <v>1380</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10192</v>
+        <v>8906</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.004385717115672501</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001590873543643946</v>
+        <v>0.00152341470523863</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01125320027877314</v>
+        <v>0.009833252573219762</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>11</v>
@@ -12642,19 +12642,19 @@
         <v>9665</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5064</v>
+        <v>5317</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>16605</v>
+        <v>17339</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.005977249932683926</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003131889868619395</v>
+        <v>0.00328806574881283</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01026964458758322</v>
+        <v>0.01072359946725422</v>
       </c>
     </row>
     <row r="41">
@@ -12671,19 +12671,19 @@
         <v>20465</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>13013</v>
+        <v>12859</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>31277</v>
+        <v>31423</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02877461613451597</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01829726270850674</v>
+        <v>0.01808067680415881</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04397757022810758</v>
+        <v>0.04418232576313266</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>42</v>
@@ -12692,19 +12692,19 @@
         <v>29428</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>20797</v>
+        <v>20632</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>38974</v>
+        <v>39831</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03249224300880958</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02296226443146572</v>
+        <v>0.02277997319671329</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04303134721211049</v>
+        <v>0.04397811157003916</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>63</v>
@@ -12713,19 +12713,19 @@
         <v>49893</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>38979</v>
+        <v>38982</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>65563</v>
+        <v>65584</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.03085702929828171</v>
+        <v>0.03085702929828172</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0241070734013989</v>
+        <v>0.02410918051934747</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04054857251337109</v>
+        <v>0.04056105129243158</v>
       </c>
     </row>
     <row r="42">
@@ -12742,19 +12742,19 @@
         <v>35241</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>24993</v>
+        <v>24144</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>54767</v>
+        <v>51820</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.04955130405565736</v>
+        <v>0.04955130405565737</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03514166607601627</v>
+        <v>0.03394814490425931</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07700526945016706</v>
+        <v>0.07286195928280102</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>50</v>
@@ -12763,19 +12763,19 @@
         <v>40897</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>30541</v>
+        <v>30568</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>54763</v>
+        <v>55472</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.04515471258859264</v>
+        <v>0.04515471258859263</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03372059244278952</v>
+        <v>0.0337508102520211</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06046404061866639</v>
+        <v>0.06124735160391182</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>81</v>
@@ -12784,19 +12784,19 @@
         <v>76138</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>60266</v>
+        <v>58391</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>97002</v>
+        <v>96476</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04708857171153114</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03727224191227634</v>
+        <v>0.03611291916002005</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05999235913606998</v>
+        <v>0.05966687359351543</v>
       </c>
     </row>
     <row r="43">
@@ -12813,19 +12813,19 @@
         <v>135600</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>113360</v>
+        <v>113268</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>163115</v>
+        <v>159234</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1906619680650876</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.15939172627259</v>
+        <v>0.1592621369152286</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2293498720941464</v>
+        <v>0.2238933999574949</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>253</v>
@@ -12834,19 +12834,19 @@
         <v>179977</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>160394</v>
+        <v>159397</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>201835</v>
+        <v>202076</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1987140645503345</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1770926058838688</v>
+        <v>0.1759920850148428</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2228476355521361</v>
+        <v>0.2231136068061941</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>373</v>
@@ -12855,19 +12855,19 @@
         <v>315576</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>285948</v>
+        <v>286593</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>347131</v>
+        <v>348381</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1951723162747842</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1768480263658312</v>
+        <v>0.1772473561469703</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2146878838229053</v>
+        <v>0.2154608674521023</v>
       </c>
     </row>
     <row r="44">
@@ -12884,19 +12884,19 @@
         <v>514208</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>483983</v>
+        <v>486216</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>539984</v>
+        <v>541590</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.723008075424825</v>
+        <v>0.7230080754248249</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6805102151614336</v>
+        <v>0.6836497045773016</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7592513423408811</v>
+        <v>0.7615095011724854</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>938</v>
@@ -12905,19 +12905,19 @@
         <v>651433</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>624873</v>
+        <v>627264</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>672519</v>
+        <v>675420</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.7192532627365907</v>
+        <v>0.7192532627365908</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6899286674110346</v>
+        <v>0.6925688059338682</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7425348742541686</v>
+        <v>0.7457376804514447</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1439</v>
@@ -12926,19 +12926,19 @@
         <v>1165640</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1126709</v>
+        <v>1129855</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1199569</v>
+        <v>1198513</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.720904832782719</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6968277595144954</v>
+        <v>0.6987733665532543</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7418888910595934</v>
+        <v>0.741235577029584</v>
       </c>
     </row>
     <row r="45">
